--- a/config_spa.xlsx
+++ b/config_spa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\OneDrive\Escritorio\rapidflex-final-site\pagina-web-rapidflex\paginaweb-final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b4839a0f9366ccf/Escritorio/rapidflex-final-site/pagina-web-rapidflex/paginaweb-final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C441C6C4-8AAE-4475-BDD1-FE038D47E93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{C441C6C4-8AAE-4475-BDD1-FE038D47E93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA642DE3-C634-4B0D-A40A-ECDF35CFF1ED}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>topbar-pad-y</t>
   </si>
   <si>
-    <t>10px</t>
-  </si>
-  <si>
     <t>color-primary</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>nav-zoom</t>
   </si>
   <si>
-    <t>0.85</t>
-  </si>
-  <si>
     <t>color</t>
   </si>
   <si>
@@ -419,7 +413,13 @@
     <t>contacto_boton</t>
   </si>
   <si>
-    <t>30px</t>
+    <t>0px</t>
+  </si>
+  <si>
+    <t>32px</t>
+  </si>
+  <si>
+    <t>1.00</t>
   </si>
 </sst>
 </file>
@@ -898,9 +898,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -959,7 +964,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,7 +986,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -989,66 +994,66 @@
         <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1074,649 +1079,649 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
